--- a/data/134/WSA/WSA.xlsx
+++ b/data/134/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGH2"/>
+  <dimension ref="A1:AGK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4684,15 +4684,30 @@
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AGG1" s="1" t="inlineStr">
+      <c r="AGJ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AGH1" s="1" t="inlineStr">
+      <c r="AGK1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -7290,17 +7305,26 @@
       <c r="AGE2" t="n">
         <v>3655.021</v>
       </c>
-      <c r="AGF2" t="inlineStr">
+      <c r="AGF2" t="n">
+        <v>3365.792</v>
+      </c>
+      <c r="AGG2" t="n">
+        <v>3139.943</v>
+      </c>
+      <c r="AGH2" t="n">
+        <v>3258.763</v>
+      </c>
+      <c r="AGI2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="AGG2" t="inlineStr">
+      <c r="AGJ2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="AGH2" t="inlineStr">
+      <c r="AGK2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>
